--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5922,7 +5923,6 @@
           <t>东吴价值成长双动力混合C</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>80.29</t>
@@ -5937,6 +5937,1088 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7025,4 +7026,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7728,4 +7729,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7737,7 +7738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7748,17 +7749,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7768,14 +7789,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.65</v>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9557</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7784,14 +7827,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.84</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7800,14 +7865,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.74</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7816,13 +7903,1709 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>63.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9504,7 +9505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9515,17 +9516,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9535,14 +9556,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.73</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9551,14 +9594,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.65</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9567,14 +9632,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.84</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1824</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9583,14 +9670,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52.74</v>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9599,13 +9708,1649 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165312</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信央视财经50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>63.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11233,7 +11234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11244,17 +11245,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11264,14 +11285,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.13</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -11280,14 +11323,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.73</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -11296,14 +11361,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.65</v>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -11312,14 +11399,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.84</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -11328,14 +11437,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>74</v>
-      </c>
-      <c r="D6" t="n">
-        <v>52.74</v>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -11344,13 +11475,1853 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>63.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>17.89</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>19.13</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>19.73</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>6.65</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>13.84</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>52.74</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>74</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>63.44</v>
       </c>
     </row>
@@ -600,6 +617,2148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015484</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012341</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012340</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财中证食品饮料指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4281,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6047,7 +8206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6749,7 +8908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7831,7 +9990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10692,7 +12851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
+++ b/数据整理/stocks/A股/深证主板/000895-双汇发展.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>8.74</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>17.89</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>19.13</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>19.73</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>6.65</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>13.84</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>52.74</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2668 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>68</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>63.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1277</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>302.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>205.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>173.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>140.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.1870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9440</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发核心精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6970</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6549</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009940</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004942</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004943</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>格林伯元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002461</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002462</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银珍利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009941</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>格林稳健价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3272,1846 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163407</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大农业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银农业产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007230</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519116</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道消费智航股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002691</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159798</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002690</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +7253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4712,7 +9207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6440,7 +10935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8206,7 +12701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8908,7 +13403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9990,7 +14485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12849,2642 +17344,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>282.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.1277</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163417</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全合宜灵活配置混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>302.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>9.1440</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163406</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全合润混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>205.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.4472</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163415</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全商业模式优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>173.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.9275</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009951</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>140.95</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5.1870</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163407</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>55.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.6440</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>45.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.1768</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002624</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.6418</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160222</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰国证食品饮料行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>73.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.3153</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.1696</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160726</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>96.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.0540</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.0135</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001631</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘中证食品饮料指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>42.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9440</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>270025</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9393</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>960001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.9393</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>21.02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.9270</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001632</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证食品饮料指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>38.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.8369</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>14.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.7404</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>020010</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰金牛创新混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20.76</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.7079</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501070</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发睿阳三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.7043</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>270008</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发核心精选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.09</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.6970</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001579</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国泰大农业股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.6549</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005491</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>兴全合宜灵活配置混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>19.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.5798</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009952</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4869</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3504</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方盛元红利混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3241</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2958</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2630</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009326</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2541</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2241</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>020009</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国泰金鹏蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2038</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160512</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>博时卓越品牌混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1877</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1789</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009940</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>格林稳健价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1726</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004942</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>格林伯元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1486</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004943</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>格林伯元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1093</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1078</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002461</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中银珍利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001667</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>南方转型增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0844</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009691</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009692</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国泰浩益18个月封闭运作混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006780</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>广发稳健策略混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003848</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中银广利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>25.66</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007230</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>兴全沪深300指数增强(LOF)C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>95.96</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>000747</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>广发逆向策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0639</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006369</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>弘毅远方国企转型升级混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002462</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中银珍利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0534</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>003641</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>长盛盛丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>49.04</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0469</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>003642</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>长盛盛丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>49.04</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>009941</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>格林稳健价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007533</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>格林创新成长混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>010021</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>广发优企精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>003849</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中银广利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>25.66</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>007534</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>格林创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>